--- a/report/Benchmark_message_handling.xlsx
+++ b/report/Benchmark_message_handling.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GM-Web-Multiplayer\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Mean RTT</t>
   </si>
@@ -34,6 +39,9 @@
   </si>
   <si>
     <t>Clients:</t>
+  </si>
+  <si>
+    <t>total incoming messages / second</t>
   </si>
 </sst>
 </file>
@@ -79,13 +87,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -94,7 +105,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -105,7 +116,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2000"/>
+              <a:t>Roundtrip time Standard deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -113,9 +180,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.3544618536861676E-2"/>
-          <c:y val="0.143569657866504"/>
+          <c:y val="0.19618923923257064"/>
           <c:w val="0.79908566251607083"/>
-          <c:h val="0.64804696111934557"/>
+          <c:h val="0.59542744470862019"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -135,6 +202,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$5:$C$22</c:f>
@@ -271,6 +369,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$5:$C$22</c:f>
@@ -401,6 +530,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$5:$C$22</c:f>
@@ -525,6 +685,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$5:$C$22</c:f>
@@ -643,6 +830,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$5:$C$22</c:f>
@@ -743,6 +957,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$5:$C$22</c:f>
@@ -817,97 +1062,6 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.640783086353597</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$AF$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$AF$5:$AF$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>3.4928498393145961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,40 +1078,185 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91236608"/>
-        <c:axId val="91242880"/>
+        <c:axId val="1232428144"/>
+        <c:axId val="1232429776"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$AF$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="plus"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$AF$5:$AF$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>3.4928498393145961</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91236608"/>
+        <c:axId val="1232428144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -965,35 +1264,80 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="2400" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-GB" sz="1800"/>
                   <a:t>Incoming messages / client second</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1800">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91242880"/>
+        <c:crossAx val="1232429776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,76 +1345,155 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91242880"/>
+        <c:axId val="1232429776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400"/>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="2400"/>
-                  <a:t>St. Deviation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="2400" baseline="0"/>
-                  <a:t> RTT (ms)</a:t>
+                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:t>St. Deviation RTT (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400"/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91236608"/>
+        <c:crossAx val="1232428144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.89954966543556436"/>
-          <c:y val="0.13849094728431613"/>
-          <c:w val="8.3165868114469702E-2"/>
-          <c:h val="0.67855450503090986"/>
+          <c:x val="0.28903241688552633"/>
+          <c:y val="0.10523903282145063"/>
+          <c:w val="0.4172081666574855"/>
+          <c:h val="7.686658085011594E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400"/>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1078,19 +1501,43 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1104,26 +1551,58 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400"/>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="2400"/>
-              <a:t>Mean Roundtrip</a:t>
+              <a:rPr lang="en-GB" sz="2000"/>
+              <a:t>Mean Roundtrip Time</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
-              <a:t> Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1145,12 +1624,50 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1198,22 +1715,23 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$L$5:$L$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$L$5:$L$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$L$5:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>32.1</c:v>
                 </c:pt>
@@ -1281,12 +1799,50 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1334,22 +1890,23 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$M$5:$M$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$M$5:$M$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$M$5:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>32.1</c:v>
                 </c:pt>
@@ -1411,12 +1968,50 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1464,22 +2059,23 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$N$5:$N$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$N$5:$N$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$N$5:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>32.700000000000003</c:v>
                 </c:pt>
@@ -1535,12 +2131,46 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1588,22 +2218,23 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$O$5:$O$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$O$5:$O$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$O$5:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>32.4</c:v>
                 </c:pt>
@@ -1653,12 +2284,46 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1706,22 +2371,23 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$P$5:$P$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$P$5:$P$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$P$5:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>32.9</c:v>
                 </c:pt>
@@ -1753,12 +2419,50 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$5:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1806,118 +2510,28 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$Q$5:$Q$22</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$Q$5:$Q$22</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$Q$5:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad1!$C$5:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$R$5:$R$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>95.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,55 +2548,266 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91313664"/>
-        <c:axId val="91315584"/>
+        <c:axId val="1350896496"/>
+        <c:axId val="1350889424"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$R$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7500</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:tint val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="plus"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:tint val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Blad1!$C$5:$C$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$C$5:$C$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Blad1!$R$5:$R$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Blad1!$R$5:$R$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>95.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91313664"/>
+        <c:axId val="1350896496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400"/>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="2400"/>
-                  <a:t>Incoming messages</a:t>
+                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:t>Incoming messages / client second</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="2400" baseline="0"/>
-                  <a:t> / client second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91315584"/>
+        <c:crossAx val="1350889424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,24 +2815,33 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91315584"/>
+        <c:axId val="1350889424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2800"/>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="2800"/>
+                  <a:rPr lang="en-GB" sz="1800"/>
                   <a:t>Roundtrip Time (ms)</a:t>
                 </a:r>
               </a:p>
@@ -2015,47 +2849,112 @@
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400"/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91313664"/>
+        <c:crossAx val="1350896496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.91000055078607556"/>
-          <c:y val="0.15604082741980715"/>
-          <c:w val="8.3621045117415374E-2"/>
-          <c:h val="0.6722649824333381"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400"/>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2063,6 +2962,31 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2074,7 +2998,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2904,11 +3828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91341184"/>
-        <c:axId val="91343104"/>
+        <c:axId val="1350887792"/>
+        <c:axId val="1350898128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91341184"/>
+        <c:axId val="1350887792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,10 +3894,10 @@
             <a:pPr>
               <a:defRPr sz="2000"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91343104"/>
+        <c:crossAx val="1350898128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2981,7 +3905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91343104"/>
+        <c:axId val="1350898128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,10 +3942,10 @@
             <a:pPr>
               <a:defRPr sz="2400"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91341184"/>
+        <c:crossAx val="1350887792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3046,7 +3970,7 @@
           <a:pPr>
             <a:defRPr sz="2400"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3063,20 +3987,2202 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean RTT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$C$26:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$26:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>185.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="1228991312"/>
+        <c:axId val="1228991856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1228991312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1200"/>
+                  <a:t>Total incoming messages / second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228991856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1228991856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL" sz="1200"/>
+                  <a:t>Mean RTT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1228991312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>513427</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129124</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37178</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>585725</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>120609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3097,16 +6203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2314961</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>106074</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28961</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>140710</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>162728</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>58819</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3128,15 +6234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>407595</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129821</xdr:rowOff>
+      <xdr:colOff>476868</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>909</xdr:rowOff>
+      <xdr:colOff>93085</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>87500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3155,55 +6261,40 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>894520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.41589</cdr:x>
-      <cdr:y>0.01938</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.64603</cdr:x>
-      <cdr:y>0.12116</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="textruta 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4995695" y="88871"/>
-          <a:ext cx="2764410" cy="466755"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2400" b="1"/>
-            <a:t>Roundtrip Time Standard</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="2400" b="1" baseline="0"/>
-            <a:t> Deviation</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3245,9 +6336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3285,9 +6376,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3322,7 +6413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3357,7 +6448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3531,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AF22"/>
+  <dimension ref="C3:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,19 +7007,19 @@
         <v>1.0488088481701516</v>
       </c>
       <c r="AA7">
-        <f t="shared" ref="AA7:AA20" si="3">SQRT(T7)</f>
+        <f t="shared" ref="AA7:AA18" si="3">SQRT(T7)</f>
         <v>1.1832159566199232</v>
       </c>
       <c r="AB7">
-        <f t="shared" ref="AB7:AB20" si="4">SQRT(U7)</f>
+        <f t="shared" ref="AB7:AB16" si="4">SQRT(U7)</f>
         <v>1.1401754250991381</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7:AC20" si="5">SQRT(V7)</f>
+        <f t="shared" ref="AC7:AC14" si="5">SQRT(V7)</f>
         <v>1.5811388300841898</v>
       </c>
       <c r="AD7">
-        <f t="shared" ref="AD7:AD20" si="6">SQRT(W7)</f>
+        <f t="shared" ref="AD7:AD8" si="6">SQRT(W7)</f>
         <v>2.1908902300206643</v>
       </c>
     </row>
@@ -4835,6 +7926,177 @@
       <c r="K22">
         <f t="shared" si="7"/>
         <v>2250000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="E26" s="2">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="2">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2500</v>
+      </c>
+      <c r="E30" s="2">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>3000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>4500</v>
+      </c>
+      <c r="E34" s="2">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="2">
+        <f>AVERAGE(L18,M17,N14,O9,P6)</f>
+        <v>39.980000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>5500</v>
+      </c>
+      <c r="E36" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>6000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>6500</v>
+      </c>
+      <c r="E38" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>7000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>7500</v>
+      </c>
+      <c r="E40" s="2">
+        <f>AVERAGE(L19,N15,O11,P7,R5)</f>
+        <v>65.42</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>8500</v>
+      </c>
+      <c r="E42" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>9500</v>
+      </c>
+      <c r="E44" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="2">
+        <f>AVERAGE(L20,M18,N16,O14,P8,Q6)</f>
+        <v>185.65</v>
       </c>
     </row>
   </sheetData>

--- a/report/Benchmark_message_handling.xlsx
+++ b/report/Benchmark_message_handling.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Mean RTT</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>total incoming messages / second</t>
+  </si>
+  <si>
+    <t>min error</t>
+  </si>
+  <si>
+    <t>max error</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.3544618536861676E-2"/>
           <c:y val="0.19618923923257064"/>
-          <c:w val="0.79908566251607083"/>
+          <c:w val="0.87966303425615811"/>
           <c:h val="0.59542744470862019"/>
         </c:manualLayout>
       </c:layout>
@@ -1078,8 +1084,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1232428144"/>
-        <c:axId val="1232429776"/>
+        <c:axId val="-1871916288"/>
+        <c:axId val="-1871919552"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1224,7 +1230,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1232428144"/>
+        <c:axId val="-1871916288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1343,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232429776"/>
+        <c:crossAx val="-1871919552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1345,12 +1351,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1232429776"/>
+        <c:axId val="-1871919552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1444,7 +1464,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1232428144"/>
+        <c:crossAx val="-1871916288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,8 +2568,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1350896496"/>
-        <c:axId val="1350889424"/>
+        <c:axId val="-1871924992"/>
+        <c:axId val="-1871924448"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2694,7 +2714,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1350896496"/>
+        <c:axId val="-1871924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +2827,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350889424"/>
+        <c:crossAx val="-1871924448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2815,12 +2835,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1350889424"/>
+        <c:axId val="-1871924448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2914,7 +2948,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350896496"/>
+        <c:crossAx val="-1871924992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3828,11 +3862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1350887792"/>
-        <c:axId val="1350898128"/>
+        <c:axId val="-1924480880"/>
+        <c:axId val="-1924488496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1350887792"/>
+        <c:axId val="-1924480880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3931,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350898128"/>
+        <c:crossAx val="-1924488496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3905,7 +3939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1350898128"/>
+        <c:axId val="-1924488496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,7 +3979,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350887792"/>
+        <c:crossAx val="-1924480880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4066,6 +4100,162 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Blad1!$G$26:$G$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.6</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.3000000000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.5</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>12.9</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>10.3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>17.8</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>29.3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>48.2</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>54.1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10.9</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Blad1!$F$26:$F$45</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.7</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12.2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11.9</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8.1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>10.8</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19.3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>24.1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>40.9</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Blad1!$C$26:$C$45</c:f>
@@ -4243,11 +4433,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="1228991312"/>
-        <c:axId val="1228991856"/>
+        <c:axId val="-1924479792"/>
+        <c:axId val="-1924478160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1228991312"/>
+        <c:axId val="-1924479792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,7 +4536,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228991856"/>
+        <c:crossAx val="-1924478160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4354,12 +4544,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228991856"/>
+        <c:axId val="-1924478160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4447,7 +4650,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228991312"/>
+        <c:crossAx val="-1924479792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6179,8 +6382,8 @@
       <xdr:rowOff>106858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>585725</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>120609</xdr:rowOff>
     </xdr:to>
@@ -6203,16 +6406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28961</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1102687</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>111040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672352</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>58819</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>731371</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6263,16 +6466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>894520</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>780220</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>5195</xdr:rowOff>
+      <xdr:rowOff>164635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600808</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>486508</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>159440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6624,8 +6827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7935,6 +8138,12 @@
       <c r="E25" t="s">
         <v>0</v>
       </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C26">
@@ -7943,6 +8152,16 @@
       <c r="E26" s="2">
         <v>32.1</v>
       </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <f>F26+G26</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -7951,6 +8170,16 @@
       <c r="E27" s="2">
         <v>32</v>
       </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27">
+        <v>0.8</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H45" si="8">F27+G27</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C28">
@@ -7959,6 +8188,16 @@
       <c r="E28" s="2">
         <v>32.5</v>
       </c>
+      <c r="F28">
+        <v>0.3</v>
+      </c>
+      <c r="G28">
+        <v>0.9</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C29">
@@ -7967,6 +8206,16 @@
       <c r="E29" s="2">
         <v>32.200000000000003</v>
       </c>
+      <c r="F29">
+        <v>0.4</v>
+      </c>
+      <c r="G29">
+        <v>0.4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C30">
@@ -7975,6 +8224,16 @@
       <c r="E30" s="2">
         <v>32.700000000000003</v>
       </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="31" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C31">
@@ -7983,6 +8242,16 @@
       <c r="E31" s="2">
         <v>32.700000000000003</v>
       </c>
+      <c r="F31">
+        <v>0.3</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="32" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C32">
@@ -7991,24 +8260,54 @@
       <c r="E32" s="2">
         <v>32.1</v>
       </c>
+      <c r="F32">
+        <v>0.4</v>
+      </c>
+      <c r="G32">
+        <v>0.8</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000002</v>
+      </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>4000</v>
       </c>
       <c r="E33" s="2">
         <v>32</v>
       </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>4500</v>
       </c>
       <c r="E34" s="2">
         <v>32.9</v>
       </c>
+      <c r="F34">
+        <v>1.2</v>
+      </c>
+      <c r="G34">
+        <v>0.3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>5000</v>
       </c>
@@ -8016,40 +8315,90 @@
         <f>AVERAGE(L18,M17,N14,O9,P6)</f>
         <v>39.980000000000004</v>
       </c>
+      <c r="F35">
+        <v>1.2</v>
+      </c>
+      <c r="G35">
+        <v>2.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>5500</v>
       </c>
       <c r="E36" s="2">
         <v>42</v>
       </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2.6</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>6000</v>
       </c>
       <c r="E37" s="2">
         <v>44</v>
       </c>
+      <c r="F37">
+        <v>2.7</v>
+      </c>
+      <c r="G37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>6500</v>
       </c>
       <c r="E38" s="2">
         <v>55</v>
       </c>
+      <c r="F38">
+        <v>12.2</v>
+      </c>
+      <c r="G38">
+        <v>9.5</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>21.7</v>
+      </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>7000</v>
       </c>
       <c r="E39" s="2">
         <v>60</v>
       </c>
+      <c r="F39">
+        <v>11.9</v>
+      </c>
+      <c r="G39">
+        <v>12.9</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="8"/>
+        <v>24.8</v>
+      </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>7500</v>
       </c>
@@ -8057,46 +8406,106 @@
         <f>AVERAGE(L19,N15,O11,P7,R5)</f>
         <v>65.42</v>
       </c>
+      <c r="F40">
+        <v>8.1</v>
+      </c>
+      <c r="G40">
+        <v>10.3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="8"/>
+        <v>18.399999999999999</v>
+      </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>8000</v>
       </c>
       <c r="E41" s="2">
         <v>70</v>
       </c>
+      <c r="F41">
+        <v>10.8</v>
+      </c>
+      <c r="G41">
+        <v>17.8</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="8"/>
+        <v>28.6</v>
+      </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>8500</v>
       </c>
       <c r="E42" s="2">
         <v>90</v>
       </c>
+      <c r="F42">
+        <v>19.3</v>
+      </c>
+      <c r="G42">
+        <v>29.3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="8"/>
+        <v>48.6</v>
+      </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>9000</v>
       </c>
       <c r="E43" s="2">
         <v>107</v>
       </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>48.2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="8"/>
+        <v>68.2</v>
+      </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>9500</v>
       </c>
       <c r="E44" s="2">
         <v>142</v>
       </c>
+      <c r="F44">
+        <v>24.1</v>
+      </c>
+      <c r="G44">
+        <v>54.1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="8"/>
+        <v>78.2</v>
+      </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>10000</v>
       </c>
       <c r="E45" s="2">
         <f>AVERAGE(L20,M18,N16,O14,P8,Q6)</f>
         <v>185.65</v>
+      </c>
+      <c r="F45">
+        <v>40.9</v>
+      </c>
+      <c r="G45">
+        <v>10.9</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="8"/>
+        <v>51.8</v>
       </c>
     </row>
   </sheetData>
